--- a/medicine/Enfance/Pierre_Élie_Ferrier/Pierre_Élie_Ferrier.xlsx
+++ b/medicine/Enfance/Pierre_Élie_Ferrier/Pierre_Élie_Ferrier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_%C3%89lie_Ferrier</t>
+          <t>Pierre_Élie_Ferrier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Élie Ferrier, dit Pef, est un auteur-illustrateur de littérature d'enfance et de jeunesse français, né le 20 mai 1939 à Saint-Jean-des-Vignes (Saône-et-Loire)[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Élie Ferrier, dit Pef, est un auteur-illustrateur de littérature d'enfance et de jeunesse français, né le 20 mai 1939 à Saint-Jean-des-Vignes (Saône-et-Loire),.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_%C3%89lie_Ferrier</t>
+          <t>Pierre_Élie_Ferrier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,19 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse
-Fils d'un instituteur qui, détaché auprès de la Ligue de l'enseignement [3] devint responsable national de l'UFOLEA (Union française des œuvres laïques d'éducation artistique (et à ce titre le créateur de la salle de spectacle du théâtre Récamier) et d'une maîtresse d’école[4], Pierre Élie Ferrier a vécu toute son enfance dans les cours de récréation. Extrêmement marqué par la Seconde Guerre mondiale, et par la Libération de 1945, il gardera en mémoire ces événements toute sa vie, et les retranscrira à travers plusieurs œuvres et illustrations.
-Pendant ses vacances à Saint-Gengoux-le-National, dans le Chalonnais, il se délecte des parties de pêche à la ligne dans la Grosne avec son père[2]. Au lycée, il dessine en cours de philo et gagne le prix d’un concours organisé par le journal L'Éducation[5].
-Le journalisme
-Au début de sa carrière de journaliste, il publie des dessins de presse dans Arts avec un autre débutant, Roland Topor. Il devient dessinateur et rédacteur du magazine bimensuel puis mensuel pour les enfants de 8 à 12 ans Franc-jeux, sous l'égide de la Ligue de l'enseignement (de 1963 à 1983?), il réalise des centaines de reportages et des bandes dessinées. Il dessine aussi pour l’industrie pharmaceutique, automobile, et imagine des méthodes de vente de cosmétiques[6]. Il devient en 1976 rédacteur en chef de la revue Francs-jeux qui prend le titre de Virgule à partir de 1979[7]. Il dessine pour l'hebdomadaire d'obédience communiste L'Humanité Dimanche vers 1964, puis dans les années 1980[8],[9].
-L'audiovisuel
-En 1975, il rencontre la chanteuse Anne Sylvestre avec qui il réalise des disques pour les petits, ce qui lui vaut d’être remarqué par les éditeurs des livres pour enfants.
-Avec Alain Serres, il réalise pour la télévision la série pour enfants des Pastagums, dont les épisodes de 13 minutes sont repris en petits volumes illustrés (Gallimard jeunesse).
-Animateur d’association
-Pef accompagne ses parents notamment dans les stages d'été organisés par son père pour les animateurs de la Ligue de l'enseignement[10]. Nourri de leur militantisme culturel (qui s'ajoutait à leur militantisme au PCF), acteur précoce de l’éducation populaire, il n’a jamais cessé d’être à l’écoute des enfants, passant autant de temps avec eux, en rencontres et en discussions, qu’à sa table de travail[11].
-Avant d’être un auteur à succès, Pef est un écrivain et un dessinateur militant (dessin satirique de presse)[12]. Et parmi les artistes s’intéressant à l’enfance, il est "l’un de ceux qui ont le mieux compris que la bataille contre l’illettrisme était à mener par des actions parallèles à l’enseignement"[12]. Il parcourt le monde, va en Finlande, au Québec, au Sénégal, en Guyane, en Nouvelle-Calédonie et y rencontre des enfants de tous les pays[13].
-L'auteur pour l'enfance et la jeunesse
-Il publie pour les enfants une centaine d'albums illustrés, dont la tonalité varie souvent d'un grotesque aimable (Barbanouille) à un humour très tendre (Moi, ma grand-mère), en passant par la bouffonnerie et l'esprit d'enfance (Aux fous les pompiers), l'absurde (Histoire de l'éléphant qui voulait se marier avec une bicyclette), l'autodérision et la verve (Les amours de Frisolo, le remarquable taureau du Charolais) etc. Sa femme, l'artiste peintre Geneviève Ferrier, les met le plus souvent en couleur[6]. L'un de ses grands succès est lié à la figure du Prince de Motordu dont les plaisantes aventures avant tout langagières mais retranscrites par des dessins inventifs sont déclinées en de nombreux volumes, le premier étant devenu un classique de l'enfance (La Belle Lisse Poire du prince de Motordu)[14].
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'un instituteur qui, détaché auprès de la Ligue de l'enseignement  devint responsable national de l'UFOLEA (Union française des œuvres laïques d'éducation artistique (et à ce titre le créateur de la salle de spectacle du théâtre Récamier) et d'une maîtresse d’école, Pierre Élie Ferrier a vécu toute son enfance dans les cours de récréation. Extrêmement marqué par la Seconde Guerre mondiale, et par la Libération de 1945, il gardera en mémoire ces événements toute sa vie, et les retranscrira à travers plusieurs œuvres et illustrations.
+Pendant ses vacances à Saint-Gengoux-le-National, dans le Chalonnais, il se délecte des parties de pêche à la ligne dans la Grosne avec son père. Au lycée, il dessine en cours de philo et gagne le prix d’un concours organisé par le journal L'Éducation.
 </t>
         </is>
       </c>
@@ -536,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre_%C3%89lie_Ferrier</t>
+          <t>Pierre_Élie_Ferrier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,12 +558,168 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le journalisme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début de sa carrière de journaliste, il publie des dessins de presse dans Arts avec un autre débutant, Roland Topor. Il devient dessinateur et rédacteur du magazine bimensuel puis mensuel pour les enfants de 8 à 12 ans Franc-jeux, sous l'égide de la Ligue de l'enseignement (de 1963 à 1983?), il réalise des centaines de reportages et des bandes dessinées. Il dessine aussi pour l’industrie pharmaceutique, automobile, et imagine des méthodes de vente de cosmétiques. Il devient en 1976 rédacteur en chef de la revue Francs-jeux qui prend le titre de Virgule à partir de 1979. Il dessine pour l'hebdomadaire d'obédience communiste L'Humanité Dimanche vers 1964, puis dans les années 1980,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pierre_Élie_Ferrier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_%C3%89lie_Ferrier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L'audiovisuel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1975, il rencontre la chanteuse Anne Sylvestre avec qui il réalise des disques pour les petits, ce qui lui vaut d’être remarqué par les éditeurs des livres pour enfants.
+Avec Alain Serres, il réalise pour la télévision la série pour enfants des Pastagums, dont les épisodes de 13 minutes sont repris en petits volumes illustrés (Gallimard jeunesse).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pierre_Élie_Ferrier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_%C3%89lie_Ferrier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Animateur d’association</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pef accompagne ses parents notamment dans les stages d'été organisés par son père pour les animateurs de la Ligue de l'enseignement. Nourri de leur militantisme culturel (qui s'ajoutait à leur militantisme au PCF), acteur précoce de l’éducation populaire, il n’a jamais cessé d’être à l’écoute des enfants, passant autant de temps avec eux, en rencontres et en discussions, qu’à sa table de travail.
+Avant d’être un auteur à succès, Pef est un écrivain et un dessinateur militant (dessin satirique de presse). Et parmi les artistes s’intéressant à l’enfance, il est "l’un de ceux qui ont le mieux compris que la bataille contre l’illettrisme était à mener par des actions parallèles à l’enseignement". Il parcourt le monde, va en Finlande, au Québec, au Sénégal, en Guyane, en Nouvelle-Calédonie et y rencontre des enfants de tous les pays.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pierre_Élie_Ferrier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_%C3%89lie_Ferrier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>L'auteur pour l'enfance et la jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il publie pour les enfants une centaine d'albums illustrés, dont la tonalité varie souvent d'un grotesque aimable (Barbanouille) à un humour très tendre (Moi, ma grand-mère), en passant par la bouffonnerie et l'esprit d'enfance (Aux fous les pompiers), l'absurde (Histoire de l'éléphant qui voulait se marier avec une bicyclette), l'autodérision et la verve (Les amours de Frisolo, le remarquable taureau du Charolais) etc. Sa femme, l'artiste peintre Geneviève Ferrier, les met le plus souvent en couleur. L'un de ses grands succès est lié à la figure du Prince de Motordu dont les plaisantes aventures avant tout langagières mais retranscrites par des dessins inventifs sont déclinées en de nombreux volumes, le premier étant devenu un classique de l'enfance (La Belle Lisse Poire du prince de Motordu).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pierre_Élie_Ferrier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_%C3%89lie_Ferrier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Auteur et illustrateur
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Moi, ma grand-mère, La Farandole, 1978.
 Les Amours de Frisolo, le remarquable taureau du Charolais, Messidor La Farandole, 1980.
 La Belle Lisse Poire du Prince de Motordu, Gallimard, 1980.
@@ -627,7 +790,43 @@
 Petit éloge de la lecture, Gallimard, 2015.
 Petit éloge de lecteurs, Gallimard, 2017.
 Petit éloge de l'aéroplane, Gallimard, 2022.
-Illustrateur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pierre_Élie_Ferrier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_%C3%89lie_Ferrier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Jacqueline et Claude Held, Une girafe à l’école, La Farandole, 1979.
 Claude-Rose et Lucien-Guy Touati, Encore du gruyère, La Farandole, 1981.
 Henriette Bichonnier, Le Monstre Poilu, Gallimard, Folio Benjamin, 1982.
@@ -705,73 +904,146 @@
 Philippe Meirieu, Korczak, pour que vivent les enfants, coll. Grands Portraits, Rue du monde, 2012.
 Yvon Le Men, En fin de droits, éditions Bruno Doucey, 2014
 Didier Daeninckx : Maudite soit la guerre, éditions Rue du Monde, 2014, Prix du roman historique - Blois 2016
-Auteur
-Vent latéral, ill. de Frédéric Clément, La Farandole, 1989.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pierre_%C3%89lie_Ferrier</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pierre_%C3%89lie_Ferrier</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pierre_Élie_Ferrier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_%C3%89lie_Ferrier</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Auteur</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Vent latéral, ill. de Frédéric Clément, La Farandole, 1989.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pierre_Élie_Ferrier</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_%C3%89lie_Ferrier</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Adaptations pour la scène</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Prince de Motordu a fait l'objet de plusieurs adaptations théâtrales en France, notamment au théâtre Charles Dullin au Grand Quevilly en 2011, au théâtre Michel Galabru en 2011[15] et aux Bouffes-Parisiens en 2012[16]
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Prince de Motordu a fait l'objet de plusieurs adaptations théâtrales en France, notamment au théâtre Charles Dullin au Grand Quevilly en 2011, au théâtre Michel Galabru en 2011 et aux Bouffes-Parisiens en 2012
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pierre_%C3%89lie_Ferrier</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pierre_%C3%89lie_Ferrier</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pierre_Élie_Ferrier</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_%C3%89lie_Ferrier</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1986 : (international) « Honour List »[17] de l' IBBY, catégorie Illustration, pour La belle lisse poire du Prince de Motordu
-1991 : "Mention" Prix critique en herbe, Foire du livre de jeunesse de Bologne[18] (Italie) pour son ouvrage jeunesse  Histoire de l'éléphant qui voulait se marier avec une bicyclette
-2017 : Prix Joël Sadeler[19] pour Attrapoèmes 
-Hommage
-2013 : Après consultation de la population de Saint-Ouen-sur-Seine, il a été décidé de nommer l'école primaire de la rue Albert Dhalenne école Pef. La rue attenante a aussi été baptisée rue du Prince de Motordu[20].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1986 : (international) « Honour List » de l' IBBY, catégorie Illustration, pour La belle lisse poire du Prince de Motordu
+1991 : "Mention" Prix critique en herbe, Foire du livre de jeunesse de Bologne (Italie) pour son ouvrage jeunesse  Histoire de l'éléphant qui voulait se marier avec une bicyclette
+2017 : Prix Joël Sadeler pour Attrapoèmes </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pierre_Élie_Ferrier</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_%C3%89lie_Ferrier</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Hommage</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2013 : Après consultation de la population de Saint-Ouen-sur-Seine, il a été décidé de nommer l'école primaire de la rue Albert Dhalenne école Pef. La rue attenante a aussi été baptisée rue du Prince de Motordu.
 L'école de Charrecey en Saône-et-Loire porte également le nom de l'auteur.
 </t>
         </is>
